--- a/WalletHub_2/Wallet_Manual_QA_Test_2.xlsx
+++ b/WalletHub_2/Wallet_Manual_QA_Test_2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spatel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spatel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>LoanType</t>
   </si>
@@ -130,13 +130,6 @@
   </si>
   <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>Home Loan - 3
-Car Loan - 3
-Credit Card - 3
-Collections - 3
-Unknown - 4</t>
   </si>
   <si>
     <t>Home Loan - 7
@@ -239,6 +232,15 @@
   </si>
   <si>
     <t>Case 5</t>
+  </si>
+  <si>
+    <t>Home Loan - 5
+Car Loan - 5
+Collections - 3
+Unknown - 4</t>
+  </si>
+  <si>
+    <t>User8</t>
   </si>
 </sst>
 </file>
@@ -288,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -312,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,31 +632,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J30"/>
+  <dimension ref="A3:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
@@ -725,6 +731,10 @@
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -734,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -795,7 +805,7 @@
     </row>
     <row r="16" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1">
         <v>20</v>
@@ -809,7 +819,7 @@
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -822,7 +832,7 @@
     </row>
     <row r="18" spans="4:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>10</v>
@@ -850,7 +860,7 @@
     </row>
     <row r="20" spans="4:10" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>10</v>
@@ -862,12 +872,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" ht="60" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
@@ -876,103 +886,103 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="4:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="9" t="s">
+      <c r="E27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="4:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
     <row r="29" spans="4:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="E30" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F29" t="s">
         <v>29</v>
       </c>
     </row>
